--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -6,7 +6,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Variables" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Codelists" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Data" sheetId="4" state="visible" r:id="rId4"/>

--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -2153,6 +2153,65 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B37" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B37"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="keyword"/>
+    <tableColumn id="2" name="value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:I6" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:I6"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="position"/>
+    <tableColumn id="2" name="variable"/>
+    <tableColumn id="3" name="type"/>
+    <tableColumn id="4" name="en_long_name"/>
+    <tableColumn id="5" name="da_long_name"/>
+    <tableColumn id="6" name="kl_long_name"/>
+    <tableColumn id="7" name="en_elimination"/>
+    <tableColumn id="8" name="da_elimination"/>
+    <tableColumn id="9" name="kl_elimination"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G21" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:G21"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="variable"/>
+    <tableColumn id="2" name="code"/>
+    <tableColumn id="3" name="sortorder"/>
+    <tableColumn id="4" name="en_code_label"/>
+    <tableColumn id="5" name="da_code_label"/>
+    <tableColumn id="6" name="kl_code_label"/>
+    <tableColumn id="7" name="precision"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E865" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E865"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="labour force status"/>
+    <tableColumn id="2" name="uddannelsesniveau"/>
+    <tableColumn id="3" name="calculation method"/>
+    <tableColumn id="4" name="time"/>
+    <tableColumn id="5" name=".figures"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2436,9 +2495,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="100.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2739,6 +2802,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2746,9 +2812,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="19.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="19.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="20.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="27.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="14.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="14.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="14.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2895,6 +2972,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2902,9 +2982,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="64.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="64.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="144.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3352,6 +3441,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3359,9 +3451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="17.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="18.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="4.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="8.71" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -18071,5 +18170,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -311,7 +311,7 @@
     <t xml:space="preserve">piffissaq</t>
   </si>
   <si>
-    <t xml:space="preserve">.figures</t>
+    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -2208,7 +2208,7 @@
     <tableColumn id="2" name="uddannelsesniveau"/>
     <tableColumn id="3" name="calculation method"/>
     <tableColumn id="4" name="time"/>
-    <tableColumn id="5" name=".figures"/>
+    <tableColumn id="5" name="figures_"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -107,7 +107,7 @@
     <t xml:space="preserve">SUBJECT-AREA_da</t>
   </si>
   <si>
-    <t xml:space="preserve">Socialområdet</t>
+    <t xml:space="preserve">SocialomrÃ¥det</t>
   </si>
   <si>
     <t xml:space="preserve">SUBJECT-AREA_kl</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">DESCRIPTION_da</t>
   </si>
   <si>
-    <t xml:space="preserve">Arbejdsmarkedsstatus fordelt på uddannelsesniveau &lt;em&gt;[SODATI4]&lt;/em&gt;</t>
+    <t xml:space="preserve">Arbejdsmarkedsstatus fordelt pÃ¥ uddannelsesniveau &lt;em&gt;[SODATI4]&lt;/em&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">DESCRIPTION_kl</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">TITLE_da</t>
   </si>
   <si>
-    <t xml:space="preserve">Befolkning efter arbejdsmarkedsstatus, uddannelsesniveau, opgørelsesmetode og tid</t>
+    <t xml:space="preserve">Befolkning efter arbejdsmarkedsstatus, uddannelsesniveau, opgÃ¸relsesmetode og tid</t>
   </si>
   <si>
     <t xml:space="preserve">TITLE_kl</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">SOURCE_da</t>
   </si>
   <si>
-    <t xml:space="preserve">Grønlands Statistik</t>
+    <t xml:space="preserve">GrÃ¸nlands Statistik</t>
   </si>
   <si>
     <t xml:space="preserve">SOURCE_kl</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">calculation method</t>
   </si>
   <si>
-    <t xml:space="preserve">opgørelsesmetode</t>
+    <t xml:space="preserve">opgÃ¸relsesmetode</t>
   </si>
   <si>
     <t xml:space="preserve">nalunaarsuinermi periuseq</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">00 Employed without further details</t>
   </si>
   <si>
-    <t xml:space="preserve">00 Beskæftigede uden nærmere angivelse</t>
+    <t xml:space="preserve">00 BeskÃ¦ftigede uden nÃ¦rmere angivelse</t>
   </si>
   <si>
     <t xml:space="preserve">00 Suliffillit annertunerusumik nalunaarsuuteqanngitsut</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">01-02 Employed students</t>
   </si>
   <si>
-    <t xml:space="preserve">01-02 Beskæftigede studerende</t>
+    <t xml:space="preserve">01-02 BeskÃ¦ftigede studerende</t>
   </si>
   <si>
     <t xml:space="preserve">01-02 Ilinniartut suliffillit</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">03-04 Employed pensioners</t>
   </si>
   <si>
-    <t xml:space="preserve">03-04 Beskæftigede pensionister</t>
+    <t xml:space="preserve">03-04 BeskÃ¦ftigede pensionister</t>
   </si>
   <si>
     <t xml:space="preserve">03-04 Soraarnerussutisiallit suliffillit</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">05-12 Employed with income replacement benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">05-12 Beskæftigede med midlertidigt indkomsterstattende ydelser</t>
+    <t xml:space="preserve">05-12 BeskÃ¦ftigede med midlertidigt indkomsterstattende ydelser</t>
   </si>
   <si>
     <t xml:space="preserve">05-12 Utaqqiisaagallarumik isertitanut taarsiissutaasunik ikiorsiissutinik pisartagallit, ernereernermi pisartagallit ilanngullugit, suliffillit</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">70 Children and young people up to and including 15 years of age</t>
   </si>
   <si>
-    <t xml:space="preserve">70 Børn og unge til og med 15 år</t>
+    <t xml:space="preserve">70 BÃ¸rn og unge til og med 15 Ã¥r</t>
   </si>
   <si>
     <t xml:space="preserve">70 Meeqqat 15-inik ataallugilluunniit ukiullit</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">90 Others outside the workforce</t>
   </si>
   <si>
-    <t xml:space="preserve">90 Øvrige uden for arbejdsstyrken</t>
+    <t xml:space="preserve">90 Ã˜vrige uden for arbejdsstyrken</t>
   </si>
   <si>
     <t xml:space="preserve">90 Sulisinnaasunut ilaanngitsut allat</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">Children and young people up to and including 15 years of age</t>
   </si>
   <si>
-    <t xml:space="preserve">Børn og unge til og med 15 år</t>
+    <t xml:space="preserve">BÃ¸rn og unge til og med 15 Ã¥r</t>
   </si>
   <si>
     <t xml:space="preserve">Meeqqat 15-inik ataallugilluunniit ukiullit</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">Post-secondary education</t>
   </si>
   <si>
-    <t xml:space="preserve">Videregående uddanelse</t>
+    <t xml:space="preserve">VideregÃ¥ende uddanelse</t>
   </si>
   <si>
     <t xml:space="preserve">Ingerlariaqqiffiusumik ilinniarfiit</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">Annual average, permanent residents</t>
   </si>
   <si>
-    <t xml:space="preserve">Årsgennemsnit, fastboende</t>
+    <t xml:space="preserve">Ã…rsgennemsnit, fastboende</t>
   </si>
   <si>
     <t xml:space="preserve">Najugaqavissut ukiumut agguaqatigiissillugu</t>
@@ -2990,7 +2990,7 @@
     <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="64.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="64.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="66.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="144.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
   </cols>

--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">CODEPAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">windows-1252</t>
+    <t xml:space="preserve">utf-8</t>
   </si>
   <si>
     <t xml:space="preserve">LANGUAGE</t>
@@ -311,7 +311,7 @@
     <t xml:space="preserve">piffissaq</t>
   </si>
   <si>
-    <t xml:space="preserve">.figures</t>
+    <t xml:space="preserve">figures_</t>
   </si>
   <si>
     <t xml:space="preserve">figures</t>
@@ -2208,7 +2208,7 @@
     <tableColumn id="2" name="uddannelsesniveau"/>
     <tableColumn id="3" name="calculation method"/>
     <tableColumn id="4" name="time"/>
-    <tableColumn id="5" name=".figures"/>
+    <tableColumn id="5" name="figures_"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -38,7 +38,7 @@
     <t xml:space="preserve">CODEPAGE</t>
   </si>
   <si>
-    <t xml:space="preserve">windows-1252</t>
+    <t xml:space="preserve">utf-8</t>
   </si>
   <si>
     <t xml:space="preserve">LANGUAGE</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">SUBJECT-AREA_da</t>
   </si>
   <si>
-    <t xml:space="preserve">SocialomrÃ¥det</t>
+    <t xml:space="preserve">Socialområdet</t>
   </si>
   <si>
     <t xml:space="preserve">SUBJECT-AREA_kl</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">DESCRIPTION_da</t>
   </si>
   <si>
-    <t xml:space="preserve">Arbejdsmarkedsstatus fordelt pÃ¥ uddannelsesniveau &lt;em&gt;[SODATI4]&lt;/em&gt;</t>
+    <t xml:space="preserve">Arbejdsmarkedsstatus fordelt på uddannelsesniveau &lt;em&gt;[SODATI4]&lt;/em&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">DESCRIPTION_kl</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">TITLE_da</t>
   </si>
   <si>
-    <t xml:space="preserve">Befolkning efter arbejdsmarkedsstatus, uddannelsesniveau, opgÃ¸relsesmetode og tid</t>
+    <t xml:space="preserve">Befolkning efter arbejdsmarkedsstatus, uddannelsesniveau, opgørelsesmetode og tid</t>
   </si>
   <si>
     <t xml:space="preserve">TITLE_kl</t>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">SOURCE_da</t>
   </si>
   <si>
-    <t xml:space="preserve">GrÃ¸nlands Statistik</t>
+    <t xml:space="preserve">Grønlands Statistik</t>
   </si>
   <si>
     <t xml:space="preserve">SOURCE_kl</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">calculation method</t>
   </si>
   <si>
-    <t xml:space="preserve">opgÃ¸relsesmetode</t>
+    <t xml:space="preserve">opgørelsesmetode</t>
   </si>
   <si>
     <t xml:space="preserve">nalunaarsuinermi periuseq</t>
@@ -344,7 +344,7 @@
     <t xml:space="preserve">00 Employed without further details</t>
   </si>
   <si>
-    <t xml:space="preserve">00 BeskÃ¦ftigede uden nÃ¦rmere angivelse</t>
+    <t xml:space="preserve">00 Beskæftigede uden nærmere angivelse</t>
   </si>
   <si>
     <t xml:space="preserve">00 Suliffillit annertunerusumik nalunaarsuuteqanngitsut</t>
@@ -356,7 +356,7 @@
     <t xml:space="preserve">01-02 Employed students</t>
   </si>
   <si>
-    <t xml:space="preserve">01-02 BeskÃ¦ftigede studerende</t>
+    <t xml:space="preserve">01-02 Beskæftigede studerende</t>
   </si>
   <si>
     <t xml:space="preserve">01-02 Ilinniartut suliffillit</t>
@@ -368,7 +368,7 @@
     <t xml:space="preserve">03-04 Employed pensioners</t>
   </si>
   <si>
-    <t xml:space="preserve">03-04 BeskÃ¦ftigede pensionister</t>
+    <t xml:space="preserve">03-04 Beskæftigede pensionister</t>
   </si>
   <si>
     <t xml:space="preserve">03-04 Soraarnerussutisiallit suliffillit</t>
@@ -380,7 +380,7 @@
     <t xml:space="preserve">05-12 Employed with income replacement benefits</t>
   </si>
   <si>
-    <t xml:space="preserve">05-12 BeskÃ¦ftigede med midlertidigt indkomsterstattende ydelser</t>
+    <t xml:space="preserve">05-12 Beskæftigede med midlertidigt indkomsterstattende ydelser</t>
   </si>
   <si>
     <t xml:space="preserve">05-12 Utaqqiisaagallarumik isertitanut taarsiissutaasunik ikiorsiissutinik pisartagallit, ernereernermi pisartagallit ilanngullugit, suliffillit</t>
@@ -452,7 +452,7 @@
     <t xml:space="preserve">70 Children and young people up to and including 15 years of age</t>
   </si>
   <si>
-    <t xml:space="preserve">70 BÃ¸rn og unge til og med 15 Ã¥r</t>
+    <t xml:space="preserve">70 Børn og unge til og med 15 år</t>
   </si>
   <si>
     <t xml:space="preserve">70 Meeqqat 15-inik ataallugilluunniit ukiullit</t>
@@ -464,7 +464,7 @@
     <t xml:space="preserve">90 Others outside the workforce</t>
   </si>
   <si>
-    <t xml:space="preserve">90 Ã˜vrige uden for arbejdsstyrken</t>
+    <t xml:space="preserve">90 Øvrige uden for arbejdsstyrken</t>
   </si>
   <si>
     <t xml:space="preserve">90 Sulisinnaasunut ilaanngitsut allat</t>
@@ -479,7 +479,7 @@
     <t xml:space="preserve">Children and young people up to and including 15 years of age</t>
   </si>
   <si>
-    <t xml:space="preserve">BÃ¸rn og unge til og med 15 Ã¥r</t>
+    <t xml:space="preserve">Børn og unge til og med 15 år</t>
   </si>
   <si>
     <t xml:space="preserve">Meeqqat 15-inik ataallugilluunniit ukiullit</t>
@@ -524,7 +524,7 @@
     <t xml:space="preserve">Post-secondary education</t>
   </si>
   <si>
-    <t xml:space="preserve">VideregÃ¥ende uddanelse</t>
+    <t xml:space="preserve">Videregående uddanelse</t>
   </si>
   <si>
     <t xml:space="preserve">Ingerlariaqqiffiusumik ilinniarfiit</t>
@@ -533,7 +533,7 @@
     <t xml:space="preserve">Annual average, permanent residents</t>
   </si>
   <si>
-    <t xml:space="preserve">Ã…rsgennemsnit, fastboende</t>
+    <t xml:space="preserve">Årsgennemsnit, fastboende</t>
   </si>
   <si>
     <t xml:space="preserve">Najugaqavissut ukiumut agguaqatigiissillugu</t>
@@ -2990,7 +2990,7 @@
     <col min="2" max="2" width="4.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="9.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="64.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="66.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="64.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="144.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
   </cols>

--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -2162,7 +2162,7 @@
     <tableColumn id="1" name="keyword"/>
     <tableColumn id="2" name="value"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2180,7 +2180,7 @@
     <tableColumn id="8" name="da_elimination"/>
     <tableColumn id="9" name="kl_elimination"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2196,7 +2196,7 @@
     <tableColumn id="6" name="kl_code_label"/>
     <tableColumn id="7" name="precision"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2210,7 +2210,7 @@
     <tableColumn id="4" name="time"/>
     <tableColumn id="5" name="figures_"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 

--- a/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
+++ b/tests/testthat/fixtures/metadata/metadata_SOXATI4_by_metamake.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">LANGUAGES</t>
   </si>
   <si>
-    <t xml:space="preserve">en","da","kl</t>
+    <t xml:space="preserve">en,da,kl</t>
   </si>
   <si>
     <t xml:space="preserve">CREATION-DATE</t>
